--- a/biology/Zoologie/Capnode_du_pêcher/Capnode_du_pêcher.xlsx
+++ b/biology/Zoologie/Capnode_du_pêcher/Capnode_du_pêcher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capnode_du_p%C3%AAcher</t>
+          <t>Capnode_du_pêcher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capnodis tenebrionis
 Le Capnode du pêcher (Capnodis tenebrionis) est une espèce d'insectes coléoptères de la famille des Buprestidae et c'est un ravageur des arbres à fruits à noyau, tels que les pruniers, pêchers, abricotiers et amandiers. Il est principalement réparti dans le bassin méditerranéen et le coléoptère apparaît en Afrique du Nord, en Europe centrale et du Sud, au Proche-Orient et autour de la mer Noire et de la mer Caspienne.
